--- a/KPP_MS/KPP_MS/obj/Release/Package/PackageTmp/download/student_info.xlsx
+++ b/KPP_MS/KPP_MS/obj/Release/Package/PackageTmp/download/student_info.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizi\OneDrive\Documents\Visual Studio 2017\Projects\KPP_MS\KPP_MS\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Genius Pintar Personal Version 2.0\KPP_MS\KPP_MS\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B9B968-4910-458D-9B09-11C6AEBB712A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100" xr2:uid="{18B0C3BA-339F-437C-B383-666C881F2437}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7104"/>
   </bookViews>
   <sheets>
     <sheet name="studentinfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>mohd hazizi</t>
   </si>
@@ -126,9 +125,6 @@
     <t>Mother_Salary</t>
   </si>
   <si>
-    <t>Student_Year</t>
-  </si>
-  <si>
     <t>Father_Phone</t>
   </si>
   <si>
@@ -199,12 +195,48 @@
   </si>
   <si>
     <t>Sem 2</t>
+  </si>
+  <si>
+    <t>Student_ID</t>
+  </si>
+  <si>
+    <t>M000999</t>
+  </si>
+  <si>
+    <t>Student_StateOfBirth</t>
+  </si>
+  <si>
+    <t>Student_Stream</t>
+  </si>
+  <si>
+    <t>PS - Pure Science</t>
+  </si>
+  <si>
+    <t>DIP - Digital Innovators Program</t>
+  </si>
+  <si>
+    <t>Temp - Temporary</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Student_Campus</t>
+  </si>
+  <si>
+    <t>PGPN</t>
+  </si>
+  <si>
+    <t>PGPN - Pusat GENIUS@Pintar Negara</t>
+  </si>
+  <si>
+    <t>APP - Akademik Pintar Pendang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +298,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,287 +616,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F11661A-855E-42DA-B1B7-CD406C428FA0}">
-  <dimension ref="A1:AB9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="8" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>89600</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>89600</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="AC2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="6"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="6"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AB5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>2018</v>
-      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB4" s="8"/>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB5" s="8"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="S6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="S7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="S8" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB10" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="S9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{C2789F1F-CDDB-4542-A956-1CF131986BB9}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{83A0810A-C7AA-4E29-A8CB-0431B021ECA9}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{DCBFB8DB-8D6E-47B6-8F45-91CD46A7A17F}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="Y2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
